--- a/public/assets/result/Liana_3.xlsx
+++ b/public/assets/result/Liana_3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -172,13 +172,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>EKO ANDRIANTO</t>
+    <t>LIANA</t>
   </si>
 </sst>
 </file>
@@ -931,19 +928,19 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J13" s="5">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13"/>
     </row>
@@ -968,19 +965,19 @@
         <v>24</v>
       </c>
       <c r="I14" s="5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="K14" s="5">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L14" s="5">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="M14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14"/>
     </row>
@@ -1005,16 +1002,16 @@
         <v>24</v>
       </c>
       <c r="I15" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J15" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K15" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L15" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M15" s="5">
         <v>2</v>
@@ -1042,16 +1039,16 @@
         <v>27</v>
       </c>
       <c r="I16" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J16" s="5">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K16" s="5">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L16" s="5">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -1079,16 +1076,16 @@
         <v>28</v>
       </c>
       <c r="I17" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K17" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L17" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -1116,16 +1113,16 @@
         <v>29</v>
       </c>
       <c r="I18" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J18" s="5">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="K18" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L18" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
@@ -1153,16 +1150,16 @@
         <v>30</v>
       </c>
       <c r="I19" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J19" s="5">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="K19" s="5">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L19" s="5">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1193,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5">
         <v>1</v>
@@ -1227,16 +1224,16 @@
         <v>28</v>
       </c>
       <c r="I21" s="5">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J21" s="5">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="K21" s="5">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="L21" s="5">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
@@ -1264,19 +1261,19 @@
         <v>29</v>
       </c>
       <c r="I22" s="5">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J22" s="5">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="K22" s="5">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="L22" s="5">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="M22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22"/>
     </row>
@@ -1301,16 +1298,16 @@
         <v>24</v>
       </c>
       <c r="I23" s="5">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J23" s="5">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="K23" s="5">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="L23" s="5">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="M23" s="5">
         <v>2</v>
@@ -1338,16 +1335,16 @@
         <v>37</v>
       </c>
       <c r="I24" s="5">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="J24" s="5">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="K24" s="5">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="L24" s="5">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="M24" s="5">
         <v>2</v>
@@ -1375,19 +1372,19 @@
         <v>29</v>
       </c>
       <c r="I25" s="5">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="J25" s="5">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="K25" s="5">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="L25" s="5">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="M25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25"/>
     </row>
@@ -1449,16 +1446,16 @@
         <v>30</v>
       </c>
       <c r="I27" s="5">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J27" s="5">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K27" s="5">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L27" s="5">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
@@ -1486,16 +1483,16 @@
         <v>27</v>
       </c>
       <c r="I28" s="5">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J28" s="5">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="K28" s="5">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="L28" s="5">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M28" s="5">
         <v>2</v>
@@ -1523,16 +1520,16 @@
         <v>29</v>
       </c>
       <c r="I29" s="5">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="J29" s="5">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="K29" s="5">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="L29" s="5">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="M29" s="5">
         <v>2</v>
@@ -1560,16 +1557,16 @@
         <v>24</v>
       </c>
       <c r="I30" s="5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J30" s="5">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="K30" s="5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="L30" s="5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M30" s="5">
         <v>2</v>
@@ -1597,16 +1594,16 @@
         <v>27</v>
       </c>
       <c r="I31" s="5">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J31" s="5">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="K31" s="5">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="L31" s="5">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M31" s="5">
         <v>2</v>
@@ -1634,19 +1631,19 @@
         <v>29</v>
       </c>
       <c r="I32" s="5">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="J32" s="5">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="K32" s="5">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="L32" s="5">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="M32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32"/>
     </row>
@@ -1708,16 +1705,16 @@
         <v>24</v>
       </c>
       <c r="I34" s="5">
+        <v>3</v>
+      </c>
+      <c r="J34" s="5">
+        <v>8</v>
+      </c>
+      <c r="K34" s="5">
         <v>7</v>
       </c>
-      <c r="J34" s="5">
-        <v>16</v>
-      </c>
-      <c r="K34" s="5">
-        <v>14</v>
-      </c>
       <c r="L34" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M34" s="5">
         <v>2</v>
@@ -1745,16 +1742,16 @@
         <v>37</v>
       </c>
       <c r="I35" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J35" s="5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K35" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L35" s="5">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M35" s="5">
         <v>2</v>
@@ -1782,16 +1779,16 @@
         <v>28</v>
       </c>
       <c r="I36" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J36" s="5">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K36" s="5">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="L36" s="5">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M36" s="5">
         <v>2</v>
@@ -1819,16 +1816,16 @@
         <v>29</v>
       </c>
       <c r="I37" s="5">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J37" s="5">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K37" s="5">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L37" s="5">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="M37" s="5">
         <v>2</v>
@@ -1880,9 +1877,7 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="K43" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="N43" s="1"/>
     </row>
@@ -1898,10 +1893,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="D46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="L46" s="4"/>
       <c r="N46" s="1"/>
